--- a/non_explainable_medium_disc/train/class_label.xlsx
+++ b/non_explainable_medium_disc/train/class_label.xlsx
@@ -444,7 +444,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -476,7 +476,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -508,7 +508,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -532,7 +532,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -548,7 +548,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -604,7 +604,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -684,7 +684,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -716,7 +716,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -724,7 +724,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -748,7 +748,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -812,7 +812,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -844,7 +844,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53">
@@ -884,7 +884,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -956,7 +956,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -964,7 +964,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -1012,7 +1012,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -1020,7 +1020,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -1068,7 +1068,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1116,7 +1116,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -1156,7 +1156,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -1180,7 +1180,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -1236,7 +1236,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -1324,7 +1324,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -1348,7 +1348,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -1364,7 +1364,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -1412,7 +1412,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
@@ -1420,7 +1420,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1468,7 +1468,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -1556,7 +1556,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -1572,7 +1572,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -1596,7 +1596,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -1620,7 +1620,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -1748,7 +1748,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -1788,7 +1788,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -1804,7 +1804,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -1844,7 +1844,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -1852,7 +1852,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
@@ -1932,7 +1932,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
@@ -2052,7 +2052,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -2084,7 +2084,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
@@ -2092,7 +2092,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
@@ -2100,7 +2100,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -2140,7 +2140,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -2156,7 +2156,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
@@ -2164,7 +2164,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -2180,7 +2180,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -2212,7 +2212,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -2340,7 +2340,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
@@ -2348,7 +2348,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
@@ -2468,7 +2468,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2604,7 +2604,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
@@ -2620,7 +2620,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
@@ -2628,7 +2628,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -2636,7 +2636,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -2668,7 +2668,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -2708,7 +2708,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -2716,7 +2716,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -2756,7 +2756,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -2908,7 +2908,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
@@ -2924,7 +2924,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
@@ -2956,7 +2956,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
@@ -3004,7 +3004,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -3044,7 +3044,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3092,7 +3092,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -3148,7 +3148,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
@@ -3196,7 +3196,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
@@ -3236,7 +3236,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
@@ -3252,7 +3252,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -3284,7 +3284,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -3348,7 +3348,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -3396,7 +3396,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
@@ -3412,7 +3412,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -3436,7 +3436,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -3452,7 +3452,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -3492,7 +3492,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
@@ -3532,7 +3532,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
@@ -3540,7 +3540,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
@@ -3588,7 +3588,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
@@ -3612,7 +3612,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -3636,7 +3636,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
@@ -3652,7 +3652,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -3700,7 +3700,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -3756,7 +3756,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
@@ -3812,7 +3812,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -3844,7 +3844,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -3860,7 +3860,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="430">
@@ -3868,7 +3868,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -3948,7 +3948,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -3972,7 +3972,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
@@ -3996,7 +3996,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -4044,7 +4044,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
@@ -4164,7 +4164,7 @@
         <v>465</v>
       </c>
       <c r="B467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468">
@@ -4172,7 +4172,7 @@
         <v>466</v>
       </c>
       <c r="B468" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469">
@@ -4220,7 +4220,7 @@
         <v>472</v>
       </c>
       <c r="B474" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -4228,7 +4228,7 @@
         <v>473</v>
       </c>
       <c r="B475" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476">
@@ -4284,7 +4284,7 @@
         <v>480</v>
       </c>
       <c r="B482" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -4356,7 +4356,7 @@
         <v>489</v>
       </c>
       <c r="B491" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -4428,7 +4428,7 @@
         <v>498</v>
       </c>
       <c r="B500" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501">
@@ -4484,7 +4484,7 @@
         <v>505</v>
       </c>
       <c r="B507" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508">
@@ -4492,7 +4492,7 @@
         <v>506</v>
       </c>
       <c r="B508" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="509">
@@ -4556,7 +4556,7 @@
         <v>514</v>
       </c>
       <c r="B516" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -4580,7 +4580,7 @@
         <v>517</v>
       </c>
       <c r="B519" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520">
@@ -4652,7 +4652,7 @@
         <v>526</v>
       </c>
       <c r="B528" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529">
@@ -4828,7 +4828,7 @@
         <v>548</v>
       </c>
       <c r="B550" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="551">
@@ -4836,7 +4836,7 @@
         <v>549</v>
       </c>
       <c r="B551" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="552">
@@ -4900,7 +4900,7 @@
         <v>557</v>
       </c>
       <c r="B559" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -4988,7 +4988,7 @@
         <v>568</v>
       </c>
       <c r="B570" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571">
@@ -5004,7 +5004,7 @@
         <v>570</v>
       </c>
       <c r="B572" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="573">
@@ -5084,7 +5084,7 @@
         <v>580</v>
       </c>
       <c r="B582" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -5164,7 +5164,7 @@
         <v>590</v>
       </c>
       <c r="B592" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="593">
@@ -5468,7 +5468,7 @@
         <v>628</v>
       </c>
       <c r="B630" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631">
@@ -5524,7 +5524,7 @@
         <v>635</v>
       </c>
       <c r="B637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638">
@@ -5556,7 +5556,7 @@
         <v>639</v>
       </c>
       <c r="B641" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642">
@@ -5596,7 +5596,7 @@
         <v>644</v>
       </c>
       <c r="B646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="647">
@@ -5780,7 +5780,7 @@
         <v>667</v>
       </c>
       <c r="B669" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670">
@@ -5836,7 +5836,7 @@
         <v>674</v>
       </c>
       <c r="B676" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="677">
@@ -5900,7 +5900,7 @@
         <v>682</v>
       </c>
       <c r="B684" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="685">
@@ -5932,7 +5932,7 @@
         <v>686</v>
       </c>
       <c r="B688" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689">
@@ -6172,7 +6172,7 @@
         <v>716</v>
       </c>
       <c r="B718" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719">
@@ -6300,7 +6300,7 @@
         <v>732</v>
       </c>
       <c r="B734" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735">
@@ -6404,7 +6404,7 @@
         <v>745</v>
       </c>
       <c r="B747" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="748">
@@ -6524,7 +6524,7 @@
         <v>760</v>
       </c>
       <c r="B762" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="763">
@@ -6564,7 +6564,7 @@
         <v>765</v>
       </c>
       <c r="B767" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="768">
@@ -6572,7 +6572,7 @@
         <v>766</v>
       </c>
       <c r="B768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="769">
@@ -6636,7 +6636,7 @@
         <v>774</v>
       </c>
       <c r="B776" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -6700,7 +6700,7 @@
         <v>782</v>
       </c>
       <c r="B784" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="785">
@@ -6844,7 +6844,7 @@
         <v>800</v>
       </c>
       <c r="B802" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803">
@@ -6852,7 +6852,7 @@
         <v>801</v>
       </c>
       <c r="B803" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="804">
@@ -6972,7 +6972,7 @@
         <v>816</v>
       </c>
       <c r="B818" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="819">
@@ -7140,7 +7140,7 @@
         <v>837</v>
       </c>
       <c r="B839" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="840">
@@ -7252,7 +7252,7 @@
         <v>851</v>
       </c>
       <c r="B853" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="854">
@@ -7444,7 +7444,7 @@
         <v>875</v>
       </c>
       <c r="B877" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878">
@@ -7468,7 +7468,7 @@
         <v>878</v>
       </c>
       <c r="B880" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="881">
@@ -7676,7 +7676,7 @@
         <v>904</v>
       </c>
       <c r="B906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="907">
@@ -7740,7 +7740,7 @@
         <v>912</v>
       </c>
       <c r="B914" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="915">
@@ -7756,7 +7756,7 @@
         <v>914</v>
       </c>
       <c r="B916" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917">
@@ -7780,7 +7780,7 @@
         <v>917</v>
       </c>
       <c r="B919" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="920">
@@ -7788,7 +7788,7 @@
         <v>918</v>
       </c>
       <c r="B920" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921">
@@ -7924,7 +7924,7 @@
         <v>935</v>
       </c>
       <c r="B937" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="938">
@@ -7956,7 +7956,7 @@
         <v>939</v>
       </c>
       <c r="B941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="942">
@@ -8140,7 +8140,7 @@
         <v>962</v>
       </c>
       <c r="B964" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965">
@@ -8148,7 +8148,7 @@
         <v>963</v>
       </c>
       <c r="B965" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966">
@@ -8188,7 +8188,7 @@
         <v>968</v>
       </c>
       <c r="B970" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971">
@@ -8260,7 +8260,7 @@
         <v>977</v>
       </c>
       <c r="B979" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="980">
@@ -8372,7 +8372,7 @@
         <v>991</v>
       </c>
       <c r="B993" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="994">
@@ -8404,7 +8404,7 @@
         <v>995</v>
       </c>
       <c r="B997" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="998">
@@ -8444,7 +8444,7 @@
         <v>1000</v>
       </c>
       <c r="B1002" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1003">
@@ -8572,7 +8572,7 @@
         <v>1016</v>
       </c>
       <c r="B1018" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1019">
@@ -8708,7 +8708,7 @@
         <v>1033</v>
       </c>
       <c r="B1035" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1036">
@@ -9004,7 +9004,7 @@
         <v>1070</v>
       </c>
       <c r="B1072" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1073">
@@ -9052,7 +9052,7 @@
         <v>1076</v>
       </c>
       <c r="B1078" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1079">
@@ -9164,7 +9164,7 @@
         <v>1090</v>
       </c>
       <c r="B1092" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1093">
@@ -9188,7 +9188,7 @@
         <v>1093</v>
       </c>
       <c r="B1095" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1096">
@@ -9380,7 +9380,7 @@
         <v>1117</v>
       </c>
       <c r="B1119" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1120">
@@ -9580,7 +9580,7 @@
         <v>1142</v>
       </c>
       <c r="B1144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1145">
@@ -9620,7 +9620,7 @@
         <v>1147</v>
       </c>
       <c r="B1149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1150">
@@ -9684,7 +9684,7 @@
         <v>1155</v>
       </c>
       <c r="B1157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1158">
@@ -9772,7 +9772,7 @@
         <v>1166</v>
       </c>
       <c r="B1168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1169">
@@ -9852,7 +9852,7 @@
         <v>1176</v>
       </c>
       <c r="B1178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1179">
@@ -9996,7 +9996,7 @@
         <v>1194</v>
       </c>
       <c r="B1196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1197">
@@ -10284,7 +10284,7 @@
         <v>1230</v>
       </c>
       <c r="B1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1233">
@@ -10444,7 +10444,7 @@
         <v>1250</v>
       </c>
       <c r="B1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1253">
@@ -10684,7 +10684,7 @@
         <v>1280</v>
       </c>
       <c r="B1282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283">
@@ -10764,7 +10764,7 @@
         <v>1290</v>
       </c>
       <c r="B1292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1293">
@@ -10772,7 +10772,7 @@
         <v>1291</v>
       </c>
       <c r="B1293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1294">
@@ -10820,7 +10820,7 @@
         <v>1297</v>
       </c>
       <c r="B1299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1300">
@@ -10900,7 +10900,7 @@
         <v>1307</v>
       </c>
       <c r="B1309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310">
@@ -10916,7 +10916,7 @@
         <v>1309</v>
       </c>
       <c r="B1311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1312">
@@ -10956,7 +10956,7 @@
         <v>1314</v>
       </c>
       <c r="B1316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1317">
@@ -11212,7 +11212,7 @@
         <v>1346</v>
       </c>
       <c r="B1348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1349">
@@ -11356,7 +11356,7 @@
         <v>1364</v>
       </c>
       <c r="B1366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1367">
@@ -11428,7 +11428,7 @@
         <v>1373</v>
       </c>
       <c r="B1375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1376">
@@ -11748,7 +11748,7 @@
         <v>1413</v>
       </c>
       <c r="B1415" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1416">
@@ -11796,7 +11796,7 @@
         <v>1419</v>
       </c>
       <c r="B1421" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1422">
@@ -11884,7 +11884,7 @@
         <v>1430</v>
       </c>
       <c r="B1432" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1433">
@@ -11948,7 +11948,7 @@
         <v>1438</v>
       </c>
       <c r="B1440" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1441">
@@ -12028,7 +12028,7 @@
         <v>1448</v>
       </c>
       <c r="B1450" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1451">
@@ -12116,7 +12116,7 @@
         <v>1459</v>
       </c>
       <c r="B1461" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1462">
@@ -12196,7 +12196,7 @@
         <v>1469</v>
       </c>
       <c r="B1471" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1472">
@@ -12204,7 +12204,7 @@
         <v>1470</v>
       </c>
       <c r="B1472" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1473">
@@ -12260,7 +12260,7 @@
         <v>1477</v>
       </c>
       <c r="B1479" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1480">
@@ -12268,7 +12268,7 @@
         <v>1478</v>
       </c>
       <c r="B1480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1481">
@@ -12348,7 +12348,7 @@
         <v>1488</v>
       </c>
       <c r="B1490" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1491">
@@ -12420,7 +12420,7 @@
         <v>1497</v>
       </c>
       <c r="B1499" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1500">
@@ -12468,7 +12468,7 @@
         <v>1503</v>
       </c>
       <c r="B1505" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1506">
@@ -12572,7 +12572,7 @@
         <v>1516</v>
       </c>
       <c r="B1518" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1519">
@@ -12708,7 +12708,7 @@
         <v>1533</v>
       </c>
       <c r="B1535" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1536">
@@ -12732,7 +12732,7 @@
         <v>1536</v>
       </c>
       <c r="B1538" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1539">
@@ -12740,7 +12740,7 @@
         <v>1537</v>
       </c>
       <c r="B1539" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1540">
@@ -12764,7 +12764,7 @@
         <v>1540</v>
       </c>
       <c r="B1542" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1543">
@@ -12804,7 +12804,7 @@
         <v>1545</v>
       </c>
       <c r="B1547" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1548">
@@ -12812,7 +12812,7 @@
         <v>1546</v>
       </c>
       <c r="B1548" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1549">
@@ -12924,7 +12924,7 @@
         <v>1560</v>
       </c>
       <c r="B1562" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1563">
@@ -12932,7 +12932,7 @@
         <v>1561</v>
       </c>
       <c r="B1563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1564">
@@ -12948,7 +12948,7 @@
         <v>1563</v>
       </c>
       <c r="B1565" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1566">
@@ -13044,7 +13044,7 @@
         <v>1575</v>
       </c>
       <c r="B1577" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1578">
@@ -13180,7 +13180,7 @@
         <v>1592</v>
       </c>
       <c r="B1594" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1595">
@@ -13188,7 +13188,7 @@
         <v>1593</v>
       </c>
       <c r="B1595" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1596">
@@ -13220,7 +13220,7 @@
         <v>1597</v>
       </c>
       <c r="B1599" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1600">
@@ -13236,7 +13236,7 @@
         <v>1599</v>
       </c>
       <c r="B1601" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1602">
@@ -13276,7 +13276,7 @@
         <v>1604</v>
       </c>
       <c r="B1606" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1607">
@@ -13356,7 +13356,7 @@
         <v>1614</v>
       </c>
       <c r="B1616" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1617">
@@ -13396,7 +13396,7 @@
         <v>1619</v>
       </c>
       <c r="B1621" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1622">
@@ -13444,7 +13444,7 @@
         <v>1625</v>
       </c>
       <c r="B1627" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1628">
@@ -13492,7 +13492,7 @@
         <v>1631</v>
       </c>
       <c r="B1633" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1634">
@@ -13500,7 +13500,7 @@
         <v>1632</v>
       </c>
       <c r="B1634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1635">
@@ -13524,7 +13524,7 @@
         <v>1635</v>
       </c>
       <c r="B1637" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1638">
@@ -13532,7 +13532,7 @@
         <v>1636</v>
       </c>
       <c r="B1638" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1639">
@@ -13716,7 +13716,7 @@
         <v>1659</v>
       </c>
       <c r="B1661" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1662">
@@ -13812,7 +13812,7 @@
         <v>1671</v>
       </c>
       <c r="B1673" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1674">
@@ -13828,7 +13828,7 @@
         <v>1673</v>
       </c>
       <c r="B1675" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1676">
@@ -13844,7 +13844,7 @@
         <v>1675</v>
       </c>
       <c r="B1677" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1678">
@@ -13868,7 +13868,7 @@
         <v>1678</v>
       </c>
       <c r="B1680" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681">
@@ -13956,7 +13956,7 @@
         <v>1689</v>
       </c>
       <c r="B1691" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1692">
@@ -13964,7 +13964,7 @@
         <v>1690</v>
       </c>
       <c r="B1692" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1693">
@@ -14076,7 +14076,7 @@
         <v>1704</v>
       </c>
       <c r="B1706" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1707">
@@ -14124,7 +14124,7 @@
         <v>1710</v>
       </c>
       <c r="B1712" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1713">
@@ -14180,7 +14180,7 @@
         <v>1717</v>
       </c>
       <c r="B1719" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1720">
@@ -14268,7 +14268,7 @@
         <v>1728</v>
       </c>
       <c r="B1730" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1731">
@@ -14284,7 +14284,7 @@
         <v>1730</v>
       </c>
       <c r="B1732" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1733">
@@ -14420,7 +14420,7 @@
         <v>1747</v>
       </c>
       <c r="B1749" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1750">
@@ -14532,7 +14532,7 @@
         <v>1761</v>
       </c>
       <c r="B1763" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1764">
@@ -14572,7 +14572,7 @@
         <v>1766</v>
       </c>
       <c r="B1768" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1769">
@@ -14628,7 +14628,7 @@
         <v>1773</v>
       </c>
       <c r="B1775" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1776">
@@ -14740,7 +14740,7 @@
         <v>1787</v>
       </c>
       <c r="B1789" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1790">
@@ -14764,7 +14764,7 @@
         <v>1790</v>
       </c>
       <c r="B1792" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1793">
@@ -14788,7 +14788,7 @@
         <v>1793</v>
       </c>
       <c r="B1795" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1796">
@@ -14876,7 +14876,7 @@
         <v>1804</v>
       </c>
       <c r="B1806" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1807">
@@ -14940,7 +14940,7 @@
         <v>1812</v>
       </c>
       <c r="B1814" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1815">
@@ -14980,7 +14980,7 @@
         <v>1817</v>
       </c>
       <c r="B1819" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1820">
@@ -15052,7 +15052,7 @@
         <v>1826</v>
       </c>
       <c r="B1828" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1829">
@@ -15100,7 +15100,7 @@
         <v>1832</v>
       </c>
       <c r="B1834" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1835">
@@ -15108,7 +15108,7 @@
         <v>1833</v>
       </c>
       <c r="B1835" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1836">
@@ -15164,7 +15164,7 @@
         <v>1840</v>
       </c>
       <c r="B1842" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1843">
@@ -15236,7 +15236,7 @@
         <v>1849</v>
       </c>
       <c r="B1851" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1852">
@@ -15244,7 +15244,7 @@
         <v>1850</v>
       </c>
       <c r="B1852" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1853">
@@ -15332,7 +15332,7 @@
         <v>1861</v>
       </c>
       <c r="B1863" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1864">
@@ -15444,7 +15444,7 @@
         <v>1875</v>
       </c>
       <c r="B1877" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1878">
@@ -15812,7 +15812,7 @@
         <v>1921</v>
       </c>
       <c r="B1923" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1924">
@@ -15828,7 +15828,7 @@
         <v>1923</v>
       </c>
       <c r="B1925" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1926">
@@ -15876,7 +15876,7 @@
         <v>1929</v>
       </c>
       <c r="B1931" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1932">
@@ -16012,7 +16012,7 @@
         <v>1946</v>
       </c>
       <c r="B1948" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1949">
@@ -16084,7 +16084,7 @@
         <v>1955</v>
       </c>
       <c r="B1957" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1958">
@@ -16148,7 +16148,7 @@
         <v>1963</v>
       </c>
       <c r="B1965" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1966">
@@ -16212,7 +16212,7 @@
         <v>1971</v>
       </c>
       <c r="B1973" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1974">
@@ -16324,7 +16324,7 @@
         <v>1985</v>
       </c>
       <c r="B1987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1988">
@@ -16348,7 +16348,7 @@
         <v>1988</v>
       </c>
       <c r="B1990" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1991">
@@ -16420,7 +16420,7 @@
         <v>1997</v>
       </c>
       <c r="B1999" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2000">
@@ -16508,7 +16508,7 @@
         <v>2008</v>
       </c>
       <c r="B2010" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2011">
@@ -16580,7 +16580,7 @@
         <v>2017</v>
       </c>
       <c r="B2019" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2020">
@@ -16652,7 +16652,7 @@
         <v>2026</v>
       </c>
       <c r="B2028" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2029">
@@ -16676,7 +16676,7 @@
         <v>2029</v>
       </c>
       <c r="B2031" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2032">
@@ -16716,7 +16716,7 @@
         <v>2034</v>
       </c>
       <c r="B2036" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2037">
@@ -16964,7 +16964,7 @@
         <v>2065</v>
       </c>
       <c r="B2067" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2068">
@@ -16980,7 +16980,7 @@
         <v>2067</v>
       </c>
       <c r="B2069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2070">
@@ -17076,7 +17076,7 @@
         <v>2079</v>
       </c>
       <c r="B2081" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2082">
@@ -17100,7 +17100,7 @@
         <v>2082</v>
       </c>
       <c r="B2084" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2085">
@@ -17116,7 +17116,7 @@
         <v>2084</v>
       </c>
       <c r="B2086" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2087">
@@ -17172,7 +17172,7 @@
         <v>2091</v>
       </c>
       <c r="B2093" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2094">
@@ -17244,7 +17244,7 @@
         <v>2100</v>
       </c>
       <c r="B2102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2103">
@@ -17532,7 +17532,7 @@
         <v>2136</v>
       </c>
       <c r="B2138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2139">
@@ -17676,7 +17676,7 @@
         <v>2154</v>
       </c>
       <c r="B2156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2157">
@@ -18348,7 +18348,7 @@
         <v>2238</v>
       </c>
       <c r="B2240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2241">
@@ -18588,7 +18588,7 @@
         <v>2268</v>
       </c>
       <c r="B2270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2271">
@@ -18716,7 +18716,7 @@
         <v>2284</v>
       </c>
       <c r="B2286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2287">
@@ -18820,7 +18820,7 @@
         <v>2297</v>
       </c>
       <c r="B2299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2300">
@@ -19284,7 +19284,7 @@
         <v>2355</v>
       </c>
       <c r="B2357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2358">
@@ -19388,7 +19388,7 @@
         <v>2368</v>
       </c>
       <c r="B2370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2371">
@@ -19516,7 +19516,7 @@
         <v>2384</v>
       </c>
       <c r="B2386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2387">
@@ -19612,7 +19612,7 @@
         <v>2396</v>
       </c>
       <c r="B2398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2399">
@@ -19716,7 +19716,7 @@
         <v>2409</v>
       </c>
       <c r="B2411" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2412">
@@ -19836,7 +19836,7 @@
         <v>2424</v>
       </c>
       <c r="B2426" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2427">
@@ -20020,7 +20020,7 @@
         <v>2447</v>
       </c>
       <c r="B2449" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2450">
@@ -20044,7 +20044,7 @@
         <v>2450</v>
       </c>
       <c r="B2452" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2453">
@@ -20052,7 +20052,7 @@
         <v>2451</v>
       </c>
       <c r="B2453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2454">
@@ -20124,7 +20124,7 @@
         <v>2460</v>
       </c>
       <c r="B2462" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2463">
@@ -20132,7 +20132,7 @@
         <v>2461</v>
       </c>
       <c r="B2463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2464">
@@ -20164,7 +20164,7 @@
         <v>2465</v>
       </c>
       <c r="B2467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2468">
@@ -20300,7 +20300,7 @@
         <v>2482</v>
       </c>
       <c r="B2484" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2485">
@@ -20308,7 +20308,7 @@
         <v>2483</v>
       </c>
       <c r="B2485" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2486">
@@ -20404,7 +20404,7 @@
         <v>2495</v>
       </c>
       <c r="B2497" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2498">
@@ -20412,7 +20412,7 @@
         <v>2496</v>
       </c>
       <c r="B2498" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2499">
@@ -21036,7 +21036,7 @@
         <v>2574</v>
       </c>
       <c r="B2576" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2577">
@@ -21204,7 +21204,7 @@
         <v>2595</v>
       </c>
       <c r="B2597" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2598">
@@ -21268,7 +21268,7 @@
         <v>2603</v>
       </c>
       <c r="B2605" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2606">
@@ -21308,7 +21308,7 @@
         <v>2608</v>
       </c>
       <c r="B2610" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2611">
@@ -21380,7 +21380,7 @@
         <v>2617</v>
       </c>
       <c r="B2619" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2620">
@@ -21420,7 +21420,7 @@
         <v>2622</v>
       </c>
       <c r="B2624" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2625">
@@ -21492,7 +21492,7 @@
         <v>2631</v>
       </c>
       <c r="B2633" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2634">
@@ -21540,7 +21540,7 @@
         <v>2637</v>
       </c>
       <c r="B2639" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2640">
@@ -21596,7 +21596,7 @@
         <v>2644</v>
       </c>
       <c r="B2646" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2647">
@@ -21668,7 +21668,7 @@
         <v>2653</v>
       </c>
       <c r="B2655" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2656">
@@ -21756,7 +21756,7 @@
         <v>2664</v>
       </c>
       <c r="B2666" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2667">
@@ -21860,7 +21860,7 @@
         <v>2677</v>
       </c>
       <c r="B2679" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2680">
@@ -21948,7 +21948,7 @@
         <v>2688</v>
       </c>
       <c r="B2690" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2691">
@@ -22052,7 +22052,7 @@
         <v>2701</v>
       </c>
       <c r="B2703" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2704">
@@ -22180,7 +22180,7 @@
         <v>2717</v>
       </c>
       <c r="B2719" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2720">
@@ -22204,7 +22204,7 @@
         <v>2720</v>
       </c>
       <c r="B2722" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2723">
@@ -22236,7 +22236,7 @@
         <v>2724</v>
       </c>
       <c r="B2726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2727">
@@ -22348,7 +22348,7 @@
         <v>2738</v>
       </c>
       <c r="B2740" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2741">
@@ -22356,7 +22356,7 @@
         <v>2739</v>
       </c>
       <c r="B2741" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2742">
@@ -22380,7 +22380,7 @@
         <v>2742</v>
       </c>
       <c r="B2744" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2745">
@@ -22476,7 +22476,7 @@
         <v>2754</v>
       </c>
       <c r="B2756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2757">
@@ -22748,7 +22748,7 @@
         <v>2788</v>
       </c>
       <c r="B2790" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2791">
@@ -22836,7 +22836,7 @@
         <v>2799</v>
       </c>
       <c r="B2801" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2802">
@@ -22876,7 +22876,7 @@
         <v>2804</v>
       </c>
       <c r="B2806" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2807">
@@ -23036,7 +23036,7 @@
         <v>2824</v>
       </c>
       <c r="B2826" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2827">
@@ -23052,7 +23052,7 @@
         <v>2826</v>
       </c>
       <c r="B2828" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2829">
@@ -23332,7 +23332,7 @@
         <v>2861</v>
       </c>
       <c r="B2863" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2864">
@@ -23348,7 +23348,7 @@
         <v>2863</v>
       </c>
       <c r="B2865" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2866">
@@ -23364,7 +23364,7 @@
         <v>2865</v>
       </c>
       <c r="B2867" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2868">
@@ -23372,7 +23372,7 @@
         <v>2866</v>
       </c>
       <c r="B2868" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2869">
@@ -23500,7 +23500,7 @@
         <v>2882</v>
       </c>
       <c r="B2884" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2885">
@@ -23780,7 +23780,7 @@
         <v>2917</v>
       </c>
       <c r="B2919" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2920">
@@ -23812,7 +23812,7 @@
         <v>2921</v>
       </c>
       <c r="B2923" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2924">
@@ -23820,7 +23820,7 @@
         <v>2922</v>
       </c>
       <c r="B2924" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2925">
@@ -23836,7 +23836,7 @@
         <v>2924</v>
       </c>
       <c r="B2926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2927">
@@ -23876,7 +23876,7 @@
         <v>2929</v>
       </c>
       <c r="B2931" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2932">
@@ -23884,7 +23884,7 @@
         <v>2930</v>
       </c>
       <c r="B2932" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2933">
@@ -23892,7 +23892,7 @@
         <v>2931</v>
       </c>
       <c r="B2933" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2934">
@@ -23940,7 +23940,7 @@
         <v>2937</v>
       </c>
       <c r="B2939" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2940">
@@ -23996,7 +23996,7 @@
         <v>2944</v>
       </c>
       <c r="B2946" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2947">
@@ -24036,7 +24036,7 @@
         <v>2949</v>
       </c>
       <c r="B2951" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2952">
@@ -24044,7 +24044,7 @@
         <v>2950</v>
       </c>
       <c r="B2952" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2953">
@@ -24060,7 +24060,7 @@
         <v>2952</v>
       </c>
       <c r="B2954" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2955">
@@ -24068,7 +24068,7 @@
         <v>2953</v>
       </c>
       <c r="B2955" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2956">
@@ -24084,7 +24084,7 @@
         <v>2955</v>
       </c>
       <c r="B2957" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2958">
@@ -24140,7 +24140,7 @@
         <v>2962</v>
       </c>
       <c r="B2964" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2965">
@@ -24156,7 +24156,7 @@
         <v>2964</v>
       </c>
       <c r="B2966" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2967">
@@ -24164,7 +24164,7 @@
         <v>2965</v>
       </c>
       <c r="B2967" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2968">
@@ -24284,7 +24284,7 @@
         <v>2980</v>
       </c>
       <c r="B2982" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2983">
@@ -24324,7 +24324,7 @@
         <v>2985</v>
       </c>
       <c r="B2987" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2988">
@@ -24364,7 +24364,7 @@
         <v>2990</v>
       </c>
       <c r="B2992" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2993">
@@ -24524,7 +24524,7 @@
         <v>3010</v>
       </c>
       <c r="B3012" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3013">
@@ -24548,7 +24548,7 @@
         <v>3013</v>
       </c>
       <c r="B3015" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3016">
@@ -24644,7 +24644,7 @@
         <v>3025</v>
       </c>
       <c r="B3027" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3028">
@@ -24660,7 +24660,7 @@
         <v>3027</v>
       </c>
       <c r="B3029" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3030">
@@ -24684,7 +24684,7 @@
         <v>3030</v>
       </c>
       <c r="B3032" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3033">
@@ -24692,7 +24692,7 @@
         <v>3031</v>
       </c>
       <c r="B3033" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3034">
@@ -24724,7 +24724,7 @@
         <v>3035</v>
       </c>
       <c r="B3037" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3038">
@@ -24740,7 +24740,7 @@
         <v>3037</v>
       </c>
       <c r="B3039" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3040">
@@ -24812,7 +24812,7 @@
         <v>3046</v>
       </c>
       <c r="B3048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3049">
@@ -24828,7 +24828,7 @@
         <v>3048</v>
       </c>
       <c r="B3050" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3051">
@@ -24852,7 +24852,7 @@
         <v>3051</v>
       </c>
       <c r="B3053" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3054">
@@ -24876,7 +24876,7 @@
         <v>3054</v>
       </c>
       <c r="B3056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3057">
@@ -24924,7 +24924,7 @@
         <v>3060</v>
       </c>
       <c r="B3062" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3063">
@@ -24932,7 +24932,7 @@
         <v>3061</v>
       </c>
       <c r="B3063" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3064">
@@ -24980,7 +24980,7 @@
         <v>3067</v>
       </c>
       <c r="B3069" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3070">
@@ -24988,7 +24988,7 @@
         <v>3068</v>
       </c>
       <c r="B3070" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3071">
@@ -25092,7 +25092,7 @@
         <v>3081</v>
       </c>
       <c r="B3083" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3084">
@@ -25100,7 +25100,7 @@
         <v>3082</v>
       </c>
       <c r="B3084" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3085">
@@ -25132,7 +25132,7 @@
         <v>3086</v>
       </c>
       <c r="B3088" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3089">
@@ -25156,7 +25156,7 @@
         <v>3089</v>
       </c>
       <c r="B3091" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3092">
@@ -25220,7 +25220,7 @@
         <v>3097</v>
       </c>
       <c r="B3099" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3100">
@@ -25276,7 +25276,7 @@
         <v>3104</v>
       </c>
       <c r="B3106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3107">
@@ -25292,7 +25292,7 @@
         <v>3106</v>
       </c>
       <c r="B3108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3109">
@@ -25420,7 +25420,7 @@
         <v>3122</v>
       </c>
       <c r="B3124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3125">
@@ -25508,7 +25508,7 @@
         <v>3133</v>
       </c>
       <c r="B3135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3136">
@@ -25524,7 +25524,7 @@
         <v>3135</v>
       </c>
       <c r="B3137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3138">
@@ -25564,7 +25564,7 @@
         <v>3140</v>
       </c>
       <c r="B3142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3143">
@@ -25580,7 +25580,7 @@
         <v>3142</v>
       </c>
       <c r="B3144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3145">
@@ -25644,7 +25644,7 @@
         <v>3150</v>
       </c>
       <c r="B3152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3153">
@@ -25700,7 +25700,7 @@
         <v>3157</v>
       </c>
       <c r="B3159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3160">
@@ -25756,7 +25756,7 @@
         <v>3164</v>
       </c>
       <c r="B3166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3167">
@@ -25788,7 +25788,7 @@
         <v>3168</v>
       </c>
       <c r="B3170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3171">
@@ -25796,7 +25796,7 @@
         <v>3169</v>
       </c>
       <c r="B3171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3172">
@@ -25812,7 +25812,7 @@
         <v>3171</v>
       </c>
       <c r="B3173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3174">
@@ -25868,7 +25868,7 @@
         <v>3178</v>
       </c>
       <c r="B3180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3181">
@@ -25932,7 +25932,7 @@
         <v>3186</v>
       </c>
       <c r="B3188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3189">
@@ -25948,7 +25948,7 @@
         <v>3188</v>
       </c>
       <c r="B3190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3191">
@@ -26004,7 +26004,7 @@
         <v>3195</v>
       </c>
       <c r="B3197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3198">
@@ -26028,7 +26028,7 @@
         <v>3198</v>
       </c>
       <c r="B3200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3201">
@@ -26036,7 +26036,7 @@
         <v>3199</v>
       </c>
       <c r="B3201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3202">
@@ -26052,7 +26052,7 @@
         <v>3201</v>
       </c>
       <c r="B3203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3204">
@@ -26092,7 +26092,7 @@
         <v>3206</v>
       </c>
       <c r="B3208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3209">
@@ -26100,7 +26100,7 @@
         <v>3207</v>
       </c>
       <c r="B3209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3210">
@@ -26140,7 +26140,7 @@
         <v>3212</v>
       </c>
       <c r="B3214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3215">
@@ -26164,7 +26164,7 @@
         <v>3215</v>
       </c>
       <c r="B3217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3218">
@@ -26188,7 +26188,7 @@
         <v>3218</v>
       </c>
       <c r="B3220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3221">
@@ -26196,7 +26196,7 @@
         <v>3219</v>
       </c>
       <c r="B3221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3222">
@@ -26220,7 +26220,7 @@
         <v>3222</v>
       </c>
       <c r="B3224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3225">
@@ -26268,7 +26268,7 @@
         <v>3228</v>
       </c>
       <c r="B3230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3231">
@@ -26332,7 +26332,7 @@
         <v>3236</v>
       </c>
       <c r="B3238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3239">
@@ -26380,7 +26380,7 @@
         <v>3242</v>
       </c>
       <c r="B3244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3245">
@@ -26396,7 +26396,7 @@
         <v>3244</v>
       </c>
       <c r="B3246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3247">
@@ -26444,7 +26444,7 @@
         <v>3250</v>
       </c>
       <c r="B3252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3253">
@@ -26452,7 +26452,7 @@
         <v>3251</v>
       </c>
       <c r="B3253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3254">
@@ -26564,7 +26564,7 @@
         <v>3265</v>
       </c>
       <c r="B3267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3268">
@@ -26604,7 +26604,7 @@
         <v>3270</v>
       </c>
       <c r="B3272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3273">
@@ -26612,7 +26612,7 @@
         <v>3271</v>
       </c>
       <c r="B3273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3274">
@@ -26668,7 +26668,7 @@
         <v>3278</v>
       </c>
       <c r="B3280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3281">
@@ -26724,7 +26724,7 @@
         <v>3285</v>
       </c>
       <c r="B3287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3288">
@@ -26732,7 +26732,7 @@
         <v>3286</v>
       </c>
       <c r="B3288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3289">
@@ -26756,7 +26756,7 @@
         <v>3289</v>
       </c>
       <c r="B3291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3292">
@@ -26772,7 +26772,7 @@
         <v>3291</v>
       </c>
       <c r="B3293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3294">
@@ -26788,7 +26788,7 @@
         <v>3293</v>
       </c>
       <c r="B3295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3296">
@@ -26828,7 +26828,7 @@
         <v>3298</v>
       </c>
       <c r="B3300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3301">
@@ -26844,7 +26844,7 @@
         <v>3300</v>
       </c>
       <c r="B3302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3303">
@@ -26860,7 +26860,7 @@
         <v>3302</v>
       </c>
       <c r="B3304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3305">
@@ -26964,7 +26964,7 @@
         <v>3315</v>
       </c>
       <c r="B3317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3318">
@@ -27012,7 +27012,7 @@
         <v>3321</v>
       </c>
       <c r="B3323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3324">
@@ -27116,7 +27116,7 @@
         <v>3334</v>
       </c>
       <c r="B3336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3337">
@@ -27156,7 +27156,7 @@
         <v>3339</v>
       </c>
       <c r="B3341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3342">
@@ -27180,7 +27180,7 @@
         <v>3342</v>
       </c>
       <c r="B3344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3345">
@@ -27188,7 +27188,7 @@
         <v>3343</v>
       </c>
       <c r="B3345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3346">
@@ -27284,7 +27284,7 @@
         <v>3355</v>
       </c>
       <c r="B3357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3358">
@@ -27420,7 +27420,7 @@
         <v>3372</v>
       </c>
       <c r="B3374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3375">
@@ -27436,7 +27436,7 @@
         <v>3374</v>
       </c>
       <c r="B3376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3377">
@@ -27452,7 +27452,7 @@
         <v>3376</v>
       </c>
       <c r="B3378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3379">
@@ -27460,7 +27460,7 @@
         <v>3377</v>
       </c>
       <c r="B3379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3380">
@@ -27492,7 +27492,7 @@
         <v>3381</v>
       </c>
       <c r="B3383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3384">
@@ -27508,7 +27508,7 @@
         <v>3383</v>
       </c>
       <c r="B3385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3386">
@@ -27548,7 +27548,7 @@
         <v>3388</v>
       </c>
       <c r="B3390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3391">
@@ -27572,7 +27572,7 @@
         <v>3391</v>
       </c>
       <c r="B3393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3394">
@@ -27676,7 +27676,7 @@
         <v>3404</v>
       </c>
       <c r="B3406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3407">
@@ -27716,7 +27716,7 @@
         <v>3409</v>
       </c>
       <c r="B3411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3412">
@@ -27748,7 +27748,7 @@
         <v>3413</v>
       </c>
       <c r="B3415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3416">
@@ -27764,7 +27764,7 @@
         <v>3415</v>
       </c>
       <c r="B3417" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3418">
@@ -27812,7 +27812,7 @@
         <v>3421</v>
       </c>
       <c r="B3423" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3424">
@@ -27932,7 +27932,7 @@
         <v>3436</v>
       </c>
       <c r="B3438" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3439">
@@ -27940,7 +27940,7 @@
         <v>3437</v>
       </c>
       <c r="B3439" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3440">
@@ -28060,7 +28060,7 @@
         <v>3452</v>
       </c>
       <c r="B3454" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3455">
@@ -28068,7 +28068,7 @@
         <v>3453</v>
       </c>
       <c r="B3455" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3456">
@@ -28084,7 +28084,7 @@
         <v>3455</v>
       </c>
       <c r="B3457" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3458">
@@ -28132,7 +28132,7 @@
         <v>3461</v>
       </c>
       <c r="B3463" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3464">
@@ -28140,7 +28140,7 @@
         <v>3462</v>
       </c>
       <c r="B3464" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3465">
@@ -28164,7 +28164,7 @@
         <v>3465</v>
       </c>
       <c r="B3467" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3468">
@@ -28268,7 +28268,7 @@
         <v>3478</v>
       </c>
       <c r="B3480" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3481">
@@ -28316,7 +28316,7 @@
         <v>3484</v>
       </c>
       <c r="B3486" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3487">
@@ -28420,7 +28420,7 @@
         <v>3497</v>
       </c>
       <c r="B3499" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3500">
